--- a/spliced/walkingToRunning/2023-03-26_18-54-27/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_18-54-27/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.5408239364624</v>
+        <v>7.345117568969727</v>
       </c>
       <c r="B2" t="n">
-        <v>2.647232055664062</v>
+        <v>-12.58289909362793</v>
       </c>
       <c r="C2" t="n">
-        <v>14.10661315917969</v>
+        <v>3.90805721282959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-6.684710502624512</v>
+        <v>10.5408239364624</v>
       </c>
       <c r="B3" t="n">
-        <v>-10.58095169067383</v>
+        <v>2.647232055664062</v>
       </c>
       <c r="C3" t="n">
-        <v>-20.94781112670898</v>
+        <v>14.10661315917969</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-9.718008995056152</v>
+        <v>-6.684710502624512</v>
       </c>
       <c r="B4" t="n">
-        <v>-12.06524276733398</v>
+        <v>-10.58095169067383</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.092952013015747</v>
+        <v>-20.94781112670898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.974858283996582</v>
+        <v>-9.718008995056152</v>
       </c>
       <c r="B5" t="n">
-        <v>-11.37698841094971</v>
+        <v>-12.06524276733398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3084669113159179</v>
+        <v>-0.092952013015747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-13.79527282714844</v>
+        <v>-2.974858283996582</v>
       </c>
       <c r="B6" t="n">
-        <v>-39.99485778808594</v>
+        <v>-11.37698841094971</v>
       </c>
       <c r="C6" t="n">
-        <v>1.296123027801514</v>
+        <v>0.3084669113159179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8157472610473633</v>
+        <v>-13.79527282714844</v>
       </c>
       <c r="B7" t="n">
-        <v>-14.87919425964356</v>
+        <v>-39.99485778808594</v>
       </c>
       <c r="C7" t="n">
-        <v>10.64366054534912</v>
+        <v>1.296123027801514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21.28074264526367</v>
+        <v>0.8157472610473633</v>
       </c>
       <c r="B8" t="n">
-        <v>-82.66264343261719</v>
+        <v>-14.87919425964356</v>
       </c>
       <c r="C8" t="n">
-        <v>18.65274810791016</v>
+        <v>10.64366054534912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-67.10326385498047</v>
+        <v>21.28074264526367</v>
       </c>
       <c r="B9" t="n">
-        <v>36.21846008300781</v>
+        <v>-82.66264343261719</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.591421127319336</v>
+        <v>18.65274810791016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.748800754547119</v>
+        <v>-67.10326385498047</v>
       </c>
       <c r="B10" t="n">
-        <v>-14.3919506072998</v>
+        <v>36.21846008300781</v>
       </c>
       <c r="C10" t="n">
-        <v>4.991169929504395</v>
+        <v>-4.591421127319336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-13.24984931945801</v>
+        <v>-4.748800754547119</v>
       </c>
       <c r="B11" t="n">
-        <v>-18.9327278137207</v>
+        <v>-14.3919506072998</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.615734577178955</v>
+        <v>4.991169929504395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>31.57485389709473</v>
+        <v>-13.24984931945801</v>
       </c>
       <c r="B12" t="n">
-        <v>-14.13540840148926</v>
+        <v>-18.9327278137207</v>
       </c>
       <c r="C12" t="n">
-        <v>37.62393188476562</v>
+        <v>-1.615734577178955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-3.522989749908448</v>
+        <v>31.57485389709473</v>
       </c>
       <c r="B13" t="n">
-        <v>-10.15239906311035</v>
+        <v>-14.13540840148926</v>
       </c>
       <c r="C13" t="n">
-        <v>17.25504112243652</v>
+        <v>37.62393188476562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.178001403808594</v>
+        <v>-3.522989749908448</v>
       </c>
       <c r="B14" t="n">
-        <v>-24.92928695678711</v>
+        <v>-10.15239906311035</v>
       </c>
       <c r="C14" t="n">
-        <v>8.257000923156738</v>
+        <v>17.25504112243652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-5.383133888244629</v>
+        <v>8.178001403808594</v>
       </c>
       <c r="B15" t="n">
-        <v>1.152879953384399</v>
+        <v>-24.92928695678711</v>
       </c>
       <c r="C15" t="n">
-        <v>1.30066442489624</v>
+        <v>8.257000923156738</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.55855941772461</v>
+        <v>-5.383133888244629</v>
       </c>
       <c r="B16" t="n">
-        <v>-18.73270034790039</v>
+        <v>1.152879953384399</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.058673858642578</v>
+        <v>1.30066442489624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.207836627960205</v>
+        <v>-21.55855941772461</v>
       </c>
       <c r="B17" t="n">
-        <v>-60.38365173339844</v>
+        <v>-18.73270034790039</v>
       </c>
       <c r="C17" t="n">
-        <v>21.30802917480469</v>
+        <v>-9.058673858642578</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-7.397396087646484</v>
+        <v>4.207836627960205</v>
       </c>
       <c r="B18" t="n">
-        <v>-7.57304859161377</v>
+        <v>-60.38365173339844</v>
       </c>
       <c r="C18" t="n">
-        <v>8.563810348510742</v>
+        <v>21.30802917480469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16.9281063079834</v>
+        <v>-7.397396087646484</v>
       </c>
       <c r="B19" t="n">
-        <v>-77.95144653320312</v>
+        <v>-7.57304859161377</v>
       </c>
       <c r="C19" t="n">
-        <v>60.47911071777344</v>
+        <v>8.563810348510742</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-18.38624954223633</v>
+        <v>16.9281063079834</v>
       </c>
       <c r="B20" t="n">
-        <v>4.694716930389404</v>
+        <v>-77.95144653320312</v>
       </c>
       <c r="C20" t="n">
-        <v>-15.62700939178467</v>
+        <v>60.47911071777344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-18.38624954223633</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.694716930389404</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-15.62700939178467</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>36.83388900756836</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-10.96193885803223</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>0.4498906135559082</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-8.928971290588379</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-17.86810111999512</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.281005859375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-14.49608421325684</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.527808666229248</v>
+      </c>
+      <c r="C24" t="n">
+        <v>44.4189453125</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-12.06443023681641</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.844409942626953</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19.9449577331543</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6.954762935638428</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-76.15243530273438</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.18494606018066</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6.384909629821777</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.00542688369751</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-29.23712921142578</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-34.79932403564453</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-7.816071510314941</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.089200496673584</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-17.0820198059082</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-31.8654670715332</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12.90904235839844</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.159783363342285</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4922776222229004</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.778494358062744</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.85674524307251</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.991205930709839</v>
+      </c>
+      <c r="C31" t="n">
+        <v>21.4826774597168</v>
       </c>
     </row>
   </sheetData>
